--- a/TP 9 CHURN secuenciales/Base_Clientes Alemanes Transformed.xlsx
+++ b/TP 9 CHURN secuenciales/Base_Clientes Alemanes Transformed.xlsx
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>3</v>
@@ -1131,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>2</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>3</v>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>3</v>
@@ -2185,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>3</v>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>3</v>
@@ -2619,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>3</v>
@@ -2681,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>3</v>
@@ -2805,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>3</v>
@@ -2991,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>3</v>
@@ -3115,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>3</v>
@@ -3239,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>3</v>
@@ -3425,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>3</v>
@@ -3549,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>3</v>
@@ -3797,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>3</v>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>2</v>
@@ -3921,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
@@ -4045,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>3</v>
@@ -4169,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>3</v>
@@ -4293,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>3</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>3</v>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>3</v>
@@ -4665,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>3</v>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>3</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>3</v>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>3</v>
@@ -5037,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>3</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>3</v>
@@ -5161,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>2</v>
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>2</v>
@@ -5533,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>3</v>
@@ -5595,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>3</v>
@@ -5657,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>3</v>
@@ -5719,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>3</v>
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>3</v>
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>3</v>
@@ -6091,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>3</v>
@@ -6153,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>2</v>
@@ -6277,7 +6277,7 @@
         <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>3</v>
@@ -6401,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>3</v>
@@ -6463,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>3</v>
@@ -6649,7 +6649,7 @@
         <v>4</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>3</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
         <v>3</v>
@@ -6959,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>2</v>
@@ -7083,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>3</v>
@@ -7269,7 +7269,7 @@
         <v>3</v>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>3</v>
@@ -7331,7 +7331,7 @@
         <v>4</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>3</v>
@@ -7393,7 +7393,7 @@
         <v>3</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
         <v>3</v>
@@ -7517,7 +7517,7 @@
         <v>3</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>3</v>
@@ -7579,7 +7579,7 @@
         <v>4</v>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>1</v>
@@ -7641,7 +7641,7 @@
         <v>2</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>3</v>
@@ -7827,7 +7827,7 @@
         <v>3</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
         <v>2</v>
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>3</v>
@@ -7951,7 +7951,7 @@
         <v>3</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>3</v>
@@ -8013,7 +8013,7 @@
         <v>3</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>3</v>
@@ -8075,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>3</v>
@@ -8137,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>3</v>
@@ -8199,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>3</v>
@@ -8261,7 +8261,7 @@
         <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
         <v>3</v>
@@ -8323,7 +8323,7 @@
         <v>4</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
         <v>1</v>
@@ -8385,7 +8385,7 @@
         <v>2</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>3</v>
@@ -8447,7 +8447,7 @@
         <v>3</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
         <v>3</v>
@@ -8695,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="M133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
         <v>3</v>
@@ -8757,7 +8757,7 @@
         <v>3</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>3</v>
@@ -8819,7 +8819,7 @@
         <v>3</v>
       </c>
       <c r="M135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
         <v>3</v>
@@ -8881,7 +8881,7 @@
         <v>3</v>
       </c>
       <c r="M136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="M137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
         <v>3</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
         <v>3</v>
@@ -9067,7 +9067,7 @@
         <v>2</v>
       </c>
       <c r="M139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
         <v>3</v>
@@ -9129,7 +9129,7 @@
         <v>3</v>
       </c>
       <c r="M140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
         <v>1</v>
@@ -9191,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="M141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
         <v>3</v>
@@ -9377,7 +9377,7 @@
         <v>4</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
         <v>1</v>
@@ -9439,7 +9439,7 @@
         <v>3</v>
       </c>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>3</v>
@@ -9625,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="M148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148" t="n">
         <v>3</v>
@@ -9687,7 +9687,7 @@
         <v>4</v>
       </c>
       <c r="M149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>1</v>
@@ -9749,7 +9749,7 @@
         <v>1</v>
       </c>
       <c r="M150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150" t="n">
         <v>3</v>
@@ -9935,7 +9935,7 @@
         <v>2</v>
       </c>
       <c r="M153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
         <v>3</v>
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="M154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154" t="n">
         <v>3</v>
@@ -10059,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="M155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
         <v>3</v>
@@ -10121,7 +10121,7 @@
         <v>3</v>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" t="n">
         <v>3</v>
@@ -10183,7 +10183,7 @@
         <v>2</v>
       </c>
       <c r="M157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157" t="n">
         <v>3</v>
@@ -10245,7 +10245,7 @@
         <v>2</v>
       </c>
       <c r="M158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
         <v>3</v>
@@ -10431,7 +10431,7 @@
         <v>3</v>
       </c>
       <c r="M161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
         <v>3</v>
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="M164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
         <v>3</v>
@@ -10679,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="M165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
         <v>3</v>
@@ -10741,7 +10741,7 @@
         <v>3</v>
       </c>
       <c r="M166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>3</v>
@@ -10927,7 +10927,7 @@
         <v>4</v>
       </c>
       <c r="M169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N169" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="M170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
         <v>3</v>
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172" t="n">
         <v>3</v>
@@ -11175,7 +11175,7 @@
         <v>2</v>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N173" t="n">
         <v>3</v>
@@ -11237,7 +11237,7 @@
         <v>2</v>
       </c>
       <c r="M174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174" t="n">
         <v>3</v>
@@ -11299,7 +11299,7 @@
         <v>2</v>
       </c>
       <c r="M175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N175" t="n">
         <v>3</v>
@@ -11423,7 +11423,7 @@
         <v>1</v>
       </c>
       <c r="M177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N177" t="n">
         <v>3</v>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="M179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179" t="n">
         <v>3</v>
@@ -11609,7 +11609,7 @@
         <v>4</v>
       </c>
       <c r="M180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180" t="n">
         <v>2</v>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="M182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
         <v>3</v>
@@ -11795,7 +11795,7 @@
         <v>3</v>
       </c>
       <c r="M183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N183" t="n">
         <v>3</v>
@@ -11857,7 +11857,7 @@
         <v>2</v>
       </c>
       <c r="M184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
         <v>3</v>
@@ -12043,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="M187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N187" t="n">
         <v>3</v>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
         <v>3</v>
@@ -12291,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="M191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191" t="n">
         <v>3</v>
@@ -12353,7 +12353,7 @@
         <v>4</v>
       </c>
       <c r="M192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192" t="n">
         <v>1</v>
@@ -12415,7 +12415,7 @@
         <v>4</v>
       </c>
       <c r="M193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193" t="n">
         <v>1</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="M194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194" t="n">
         <v>3</v>
@@ -12539,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
         <v>3</v>
@@ -12601,7 +12601,7 @@
         <v>3</v>
       </c>
       <c r="M196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196" t="n">
         <v>3</v>
@@ -12725,7 +12725,7 @@
         <v>2</v>
       </c>
       <c r="M198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N198" t="n">
         <v>3</v>
@@ -12787,7 +12787,7 @@
         <v>3</v>
       </c>
       <c r="M199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N199" t="n">
         <v>2</v>
@@ -12849,7 +12849,7 @@
         <v>4</v>
       </c>
       <c r="M200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N201" t="n">
         <v>3</v>
@@ -13035,7 +13035,7 @@
         <v>2</v>
       </c>
       <c r="M203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N203" t="n">
         <v>3</v>
@@ -13221,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="M206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
         <v>3</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="M207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207" t="n">
         <v>3</v>
@@ -13345,7 +13345,7 @@
         <v>2</v>
       </c>
       <c r="M208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
         <v>3</v>
@@ -13407,7 +13407,7 @@
         <v>3</v>
       </c>
       <c r="M209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N209" t="n">
         <v>3</v>
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N210" t="n">
         <v>3</v>
@@ -13593,7 +13593,7 @@
         <v>4</v>
       </c>
       <c r="M212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N212" t="n">
         <v>1</v>
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="M213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N213" t="n">
         <v>3</v>
@@ -13779,7 +13779,7 @@
         <v>4</v>
       </c>
       <c r="M215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N215" t="n">
         <v>1</v>
@@ -13841,7 +13841,7 @@
         <v>4</v>
       </c>
       <c r="M216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N216" t="n">
         <v>1</v>
@@ -13903,7 +13903,7 @@
         <v>3</v>
       </c>
       <c r="M217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N217" t="n">
         <v>3</v>
@@ -14027,7 +14027,7 @@
         <v>2</v>
       </c>
       <c r="M219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
         <v>3</v>
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="M220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N220" t="n">
         <v>3</v>
@@ -14151,7 +14151,7 @@
         <v>3</v>
       </c>
       <c r="M221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
         <v>3</v>
@@ -14213,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="M222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N222" t="n">
         <v>3</v>
@@ -14275,7 +14275,7 @@
         <v>2</v>
       </c>
       <c r="M223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N223" t="n">
         <v>3</v>
@@ -14337,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="M224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224" t="n">
         <v>3</v>
@@ -14523,7 +14523,7 @@
         <v>4</v>
       </c>
       <c r="M227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227" t="n">
         <v>1</v>
@@ -14771,7 +14771,7 @@
         <v>2</v>
       </c>
       <c r="M231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N231" t="n">
         <v>3</v>
@@ -14833,7 +14833,7 @@
         <v>2</v>
       </c>
       <c r="M232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232" t="n">
         <v>3</v>
@@ -14895,7 +14895,7 @@
         <v>3</v>
       </c>
       <c r="M233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233" t="n">
         <v>3</v>
@@ -15019,7 +15019,7 @@
         <v>4</v>
       </c>
       <c r="M235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N235" t="n">
         <v>1</v>
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="M237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N237" t="n">
         <v>3</v>
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="M238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238" t="n">
         <v>3</v>
@@ -15267,7 +15267,7 @@
         <v>2</v>
       </c>
       <c r="M239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N239" t="n">
         <v>2</v>
@@ -15329,7 +15329,7 @@
         <v>3</v>
       </c>
       <c r="M240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N240" t="n">
         <v>3</v>
@@ -15391,7 +15391,7 @@
         <v>3</v>
       </c>
       <c r="M241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N241" t="n">
         <v>3</v>
@@ -15515,7 +15515,7 @@
         <v>4</v>
       </c>
       <c r="M243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N243" t="n">
         <v>1</v>
@@ -15701,7 +15701,7 @@
         <v>3</v>
       </c>
       <c r="M246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N246" t="n">
         <v>3</v>
@@ -15949,7 +15949,7 @@
         <v>1</v>
       </c>
       <c r="M250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N250" t="n">
         <v>3</v>
@@ -16011,7 +16011,7 @@
         <v>2</v>
       </c>
       <c r="M251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N251" t="n">
         <v>3</v>
@@ -16073,7 +16073,7 @@
         <v>3</v>
       </c>
       <c r="M252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N252" t="n">
         <v>3</v>
@@ -16259,7 +16259,7 @@
         <v>1</v>
       </c>
       <c r="M255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N255" t="n">
         <v>3</v>
@@ -16383,7 +16383,7 @@
         <v>4</v>
       </c>
       <c r="M257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N257" t="n">
         <v>3</v>
@@ -16445,7 +16445,7 @@
         <v>4</v>
       </c>
       <c r="M258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N258" t="n">
         <v>1</v>
@@ -16507,7 +16507,7 @@
         <v>1</v>
       </c>
       <c r="M259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N259" t="n">
         <v>3</v>
@@ -16631,7 +16631,7 @@
         <v>4</v>
       </c>
       <c r="M261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N261" t="n">
         <v>1</v>
@@ -16693,7 +16693,7 @@
         <v>3</v>
       </c>
       <c r="M262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N262" t="n">
         <v>3</v>
@@ -16755,7 +16755,7 @@
         <v>3</v>
       </c>
       <c r="M263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N263" t="n">
         <v>3</v>
@@ -16879,7 +16879,7 @@
         <v>3</v>
       </c>
       <c r="M265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N265" t="n">
         <v>3</v>
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
       <c r="M268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N268" t="n">
         <v>2</v>
@@ -17127,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="M269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N269" t="n">
         <v>3</v>
@@ -17189,7 +17189,7 @@
         <v>3</v>
       </c>
       <c r="M270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N270" t="n">
         <v>3</v>
@@ -17313,7 +17313,7 @@
         <v>4</v>
       </c>
       <c r="M272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N272" t="n">
         <v>1</v>
@@ -17375,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="M273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N273" t="n">
         <v>3</v>
@@ -17437,7 +17437,7 @@
         <v>4</v>
       </c>
       <c r="M274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N274" t="n">
         <v>1</v>
@@ -17499,7 +17499,7 @@
         <v>3</v>
       </c>
       <c r="M275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N275" t="n">
         <v>3</v>
@@ -17561,7 +17561,7 @@
         <v>3</v>
       </c>
       <c r="M276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N276" t="n">
         <v>3</v>
@@ -17933,7 +17933,7 @@
         <v>2</v>
       </c>
       <c r="M282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N282" t="n">
         <v>3</v>
@@ -18119,7 +18119,7 @@
         <v>2</v>
       </c>
       <c r="M285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N285" t="n">
         <v>3</v>
@@ -18243,7 +18243,7 @@
         <v>4</v>
       </c>
       <c r="M287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N287" t="n">
         <v>1</v>
@@ -18305,7 +18305,7 @@
         <v>3</v>
       </c>
       <c r="M288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N288" t="n">
         <v>3</v>
@@ -18367,7 +18367,7 @@
         <v>3</v>
       </c>
       <c r="M289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N289" t="n">
         <v>3</v>
@@ -18429,7 +18429,7 @@
         <v>4</v>
       </c>
       <c r="M290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
         <v>2</v>
@@ -18491,7 +18491,7 @@
         <v>4</v>
       </c>
       <c r="M291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N291" t="n">
         <v>1</v>
@@ -18553,7 +18553,7 @@
         <v>2</v>
       </c>
       <c r="M292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N292" t="n">
         <v>3</v>
@@ -18615,7 +18615,7 @@
         <v>1</v>
       </c>
       <c r="M293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N293" t="n">
         <v>3</v>
@@ -18677,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="M294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N294" t="n">
         <v>3</v>
@@ -18863,7 +18863,7 @@
         <v>3</v>
       </c>
       <c r="M297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N297" t="n">
         <v>3</v>
@@ -18925,7 +18925,7 @@
         <v>3</v>
       </c>
       <c r="M298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N298" t="n">
         <v>3</v>
@@ -19173,7 +19173,7 @@
         <v>3</v>
       </c>
       <c r="M302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N302" t="n">
         <v>3</v>
@@ -19235,7 +19235,7 @@
         <v>4</v>
       </c>
       <c r="M303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N303" t="n">
         <v>2</v>
@@ -19297,7 +19297,7 @@
         <v>2</v>
       </c>
       <c r="M304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N304" t="n">
         <v>3</v>
@@ -19421,7 +19421,7 @@
         <v>3</v>
       </c>
       <c r="M306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N306" t="n">
         <v>3</v>
@@ -19545,7 +19545,7 @@
         <v>3</v>
       </c>
       <c r="M308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N308" t="n">
         <v>3</v>
@@ -19607,7 +19607,7 @@
         <v>1</v>
       </c>
       <c r="M309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N309" t="n">
         <v>3</v>
@@ -19669,7 +19669,7 @@
         <v>1</v>
       </c>
       <c r="M310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N310" t="n">
         <v>3</v>
@@ -19855,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="M313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N313" t="n">
         <v>3</v>
@@ -19979,7 +19979,7 @@
         <v>1</v>
       </c>
       <c r="M315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N315" t="n">
         <v>3</v>
@@ -20041,7 +20041,7 @@
         <v>4</v>
       </c>
       <c r="M316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N316" t="n">
         <v>1</v>
@@ -20103,7 +20103,7 @@
         <v>1</v>
       </c>
       <c r="M317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N317" t="n">
         <v>3</v>
@@ -20289,7 +20289,7 @@
         <v>1</v>
       </c>
       <c r="M320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N320" t="n">
         <v>3</v>
@@ -20351,7 +20351,7 @@
         <v>3</v>
       </c>
       <c r="M321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N321" t="n">
         <v>3</v>
@@ -20413,7 +20413,7 @@
         <v>3</v>
       </c>
       <c r="M322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N322" t="n">
         <v>3</v>
@@ -20475,7 +20475,7 @@
         <v>2</v>
       </c>
       <c r="M323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N323" t="n">
         <v>3</v>
@@ -20599,7 +20599,7 @@
         <v>2</v>
       </c>
       <c r="M325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N325" t="n">
         <v>2</v>
@@ -20661,7 +20661,7 @@
         <v>1</v>
       </c>
       <c r="M326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N326" t="n">
         <v>3</v>
@@ -20723,7 +20723,7 @@
         <v>1</v>
       </c>
       <c r="M327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N327" t="n">
         <v>3</v>
@@ -20785,7 +20785,7 @@
         <v>3</v>
       </c>
       <c r="M328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N328" t="n">
         <v>3</v>
@@ -20909,7 +20909,7 @@
         <v>2</v>
       </c>
       <c r="M330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N330" t="n">
         <v>3</v>
@@ -20971,7 +20971,7 @@
         <v>3</v>
       </c>
       <c r="M331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N331" t="n">
         <v>3</v>
@@ -21095,7 +21095,7 @@
         <v>1</v>
       </c>
       <c r="M333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N333" t="n">
         <v>2</v>
@@ -21219,7 +21219,7 @@
         <v>3</v>
       </c>
       <c r="M335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N335" t="n">
         <v>3</v>
@@ -21281,7 +21281,7 @@
         <v>2</v>
       </c>
       <c r="M336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N336" t="n">
         <v>3</v>
@@ -21343,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="M337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N337" t="n">
         <v>3</v>
@@ -21405,7 +21405,7 @@
         <v>1</v>
       </c>
       <c r="M338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N338" t="n">
         <v>2</v>
@@ -21467,7 +21467,7 @@
         <v>2</v>
       </c>
       <c r="M339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N339" t="n">
         <v>3</v>
@@ -21529,7 +21529,7 @@
         <v>3</v>
       </c>
       <c r="M340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N340" t="n">
         <v>3</v>
@@ -21591,7 +21591,7 @@
         <v>4</v>
       </c>
       <c r="M341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N341" t="n">
         <v>3</v>
@@ -21653,7 +21653,7 @@
         <v>3</v>
       </c>
       <c r="M342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N342" t="n">
         <v>3</v>
@@ -21777,7 +21777,7 @@
         <v>3</v>
       </c>
       <c r="M344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N344" t="n">
         <v>3</v>
@@ -21839,7 +21839,7 @@
         <v>2</v>
       </c>
       <c r="M345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N345" t="n">
         <v>3</v>
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
       <c r="M348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N348" t="n">
         <v>3</v>
@@ -22087,7 +22087,7 @@
         <v>3</v>
       </c>
       <c r="M349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N349" t="n">
         <v>3</v>
@@ -22273,7 +22273,7 @@
         <v>2</v>
       </c>
       <c r="M352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N352" t="n">
         <v>2</v>
@@ -22335,7 +22335,7 @@
         <v>2</v>
       </c>
       <c r="M353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N353" t="n">
         <v>3</v>
@@ -22397,7 +22397,7 @@
         <v>1</v>
       </c>
       <c r="M354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N354" t="n">
         <v>3</v>
@@ -22459,7 +22459,7 @@
         <v>3</v>
       </c>
       <c r="M355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N355" t="n">
         <v>3</v>
@@ -22521,7 +22521,7 @@
         <v>4</v>
       </c>
       <c r="M356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N356" t="n">
         <v>1</v>
@@ -22583,7 +22583,7 @@
         <v>1</v>
       </c>
       <c r="M357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N357" t="n">
         <v>2</v>
@@ -22831,7 +22831,7 @@
         <v>2</v>
       </c>
       <c r="M361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N361" t="n">
         <v>3</v>
@@ -22893,7 +22893,7 @@
         <v>1</v>
       </c>
       <c r="M362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N362" t="n">
         <v>2</v>
@@ -22955,7 +22955,7 @@
         <v>2</v>
       </c>
       <c r="M363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N363" t="n">
         <v>3</v>
@@ -23017,7 +23017,7 @@
         <v>1</v>
       </c>
       <c r="M364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N364" t="n">
         <v>3</v>
@@ -23141,7 +23141,7 @@
         <v>4</v>
       </c>
       <c r="M366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N366" t="n">
         <v>1</v>
@@ -23203,7 +23203,7 @@
         <v>1</v>
       </c>
       <c r="M367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N367" t="n">
         <v>3</v>
@@ -23265,7 +23265,7 @@
         <v>3</v>
       </c>
       <c r="M368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N368" t="n">
         <v>3</v>
@@ -23389,7 +23389,7 @@
         <v>3</v>
       </c>
       <c r="M370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N370" t="n">
         <v>3</v>
@@ -23451,7 +23451,7 @@
         <v>4</v>
       </c>
       <c r="M371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N371" t="n">
         <v>1</v>
@@ -23637,7 +23637,7 @@
         <v>2</v>
       </c>
       <c r="M374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N374" t="n">
         <v>3</v>
@@ -23699,7 +23699,7 @@
         <v>2</v>
       </c>
       <c r="M375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N375" t="n">
         <v>3</v>
@@ -23761,7 +23761,7 @@
         <v>1</v>
       </c>
       <c r="M376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N376" t="n">
         <v>3</v>
@@ -23823,7 +23823,7 @@
         <v>2</v>
       </c>
       <c r="M377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N377" t="n">
         <v>3</v>
@@ -23885,7 +23885,7 @@
         <v>4</v>
       </c>
       <c r="M378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N378" t="n">
         <v>1</v>
@@ -23947,7 +23947,7 @@
         <v>4</v>
       </c>
       <c r="M379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N379" t="n">
         <v>1</v>
@@ -24133,7 +24133,7 @@
         <v>3</v>
       </c>
       <c r="M382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N382" t="n">
         <v>3</v>
@@ -24195,7 +24195,7 @@
         <v>3</v>
       </c>
       <c r="M383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N383" t="n">
         <v>3</v>
@@ -24257,7 +24257,7 @@
         <v>1</v>
       </c>
       <c r="M384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N384" t="n">
         <v>3</v>
@@ -24319,7 +24319,7 @@
         <v>1</v>
       </c>
       <c r="M385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N385" t="n">
         <v>3</v>
@@ -24381,7 +24381,7 @@
         <v>3</v>
       </c>
       <c r="M386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N386" t="n">
         <v>3</v>
@@ -24443,7 +24443,7 @@
         <v>1</v>
       </c>
       <c r="M387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N387" t="n">
         <v>2</v>
@@ -24629,7 +24629,7 @@
         <v>2</v>
       </c>
       <c r="M390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N390" t="n">
         <v>3</v>
@@ -24691,7 +24691,7 @@
         <v>2</v>
       </c>
       <c r="M391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N391" t="n">
         <v>3</v>
@@ -24753,7 +24753,7 @@
         <v>2</v>
       </c>
       <c r="M392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N392" t="n">
         <v>3</v>
@@ -24815,7 +24815,7 @@
         <v>4</v>
       </c>
       <c r="M393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N393" t="n">
         <v>1</v>
@@ -24877,7 +24877,7 @@
         <v>1</v>
       </c>
       <c r="M394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N394" t="n">
         <v>3</v>
@@ -24939,7 +24939,7 @@
         <v>3</v>
       </c>
       <c r="M395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N395" t="n">
         <v>3</v>
@@ -25001,7 +25001,7 @@
         <v>3</v>
       </c>
       <c r="M396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N396" t="n">
         <v>3</v>
@@ -25063,7 +25063,7 @@
         <v>4</v>
       </c>
       <c r="M397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N397" t="n">
         <v>1</v>
@@ -25187,7 +25187,7 @@
         <v>2</v>
       </c>
       <c r="M399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N399" t="n">
         <v>3</v>
@@ -25311,7 +25311,7 @@
         <v>2</v>
       </c>
       <c r="M401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N401" t="n">
         <v>3</v>
@@ -25373,7 +25373,7 @@
         <v>4</v>
       </c>
       <c r="M402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N402" t="n">
         <v>1</v>
@@ -25497,7 +25497,7 @@
         <v>2</v>
       </c>
       <c r="M404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N404" t="n">
         <v>3</v>
@@ -25621,7 +25621,7 @@
         <v>3</v>
       </c>
       <c r="M406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N406" t="n">
         <v>3</v>
@@ -25683,7 +25683,7 @@
         <v>3</v>
       </c>
       <c r="M407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N407" t="n">
         <v>3</v>
@@ -25745,7 +25745,7 @@
         <v>3</v>
       </c>
       <c r="M408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N408" t="n">
         <v>3</v>
@@ -26117,7 +26117,7 @@
         <v>3</v>
       </c>
       <c r="M414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N414" t="n">
         <v>3</v>
@@ -26241,7 +26241,7 @@
         <v>1</v>
       </c>
       <c r="M416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N416" t="n">
         <v>3</v>
@@ -26365,7 +26365,7 @@
         <v>4</v>
       </c>
       <c r="M418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N418" t="n">
         <v>1</v>
@@ -26427,7 +26427,7 @@
         <v>1</v>
       </c>
       <c r="M419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N419" t="n">
         <v>2</v>
@@ -26551,7 +26551,7 @@
         <v>1</v>
       </c>
       <c r="M421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N421" t="n">
         <v>3</v>
@@ -26613,7 +26613,7 @@
         <v>3</v>
       </c>
       <c r="M422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N422" t="n">
         <v>2</v>
@@ -26675,7 +26675,7 @@
         <v>1</v>
       </c>
       <c r="M423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N423" t="n">
         <v>3</v>
@@ -26737,7 +26737,7 @@
         <v>4</v>
       </c>
       <c r="M424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N424" t="n">
         <v>1</v>
@@ -26799,7 +26799,7 @@
         <v>1</v>
       </c>
       <c r="M425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N425" t="n">
         <v>3</v>
@@ -26985,7 +26985,7 @@
         <v>1</v>
       </c>
       <c r="M428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N428" t="n">
         <v>3</v>
@@ -27047,7 +27047,7 @@
         <v>1</v>
       </c>
       <c r="M429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N429" t="n">
         <v>3</v>
@@ -27109,7 +27109,7 @@
         <v>4</v>
       </c>
       <c r="M430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N430" t="n">
         <v>1</v>
@@ -27295,7 +27295,7 @@
         <v>3</v>
       </c>
       <c r="M433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N433" t="n">
         <v>3</v>
@@ -27419,7 +27419,7 @@
         <v>1</v>
       </c>
       <c r="M435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N435" t="n">
         <v>2</v>
@@ -27481,7 +27481,7 @@
         <v>1</v>
       </c>
       <c r="M436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N436" t="n">
         <v>3</v>
@@ -27667,7 +27667,7 @@
         <v>3</v>
       </c>
       <c r="M439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N439" t="n">
         <v>3</v>
@@ -27729,7 +27729,7 @@
         <v>1</v>
       </c>
       <c r="M440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N440" t="n">
         <v>3</v>
@@ -27791,7 +27791,7 @@
         <v>1</v>
       </c>
       <c r="M441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N441" t="n">
         <v>3</v>
@@ -27853,7 +27853,7 @@
         <v>1</v>
       </c>
       <c r="M442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N442" t="n">
         <v>3</v>
@@ -28039,7 +28039,7 @@
         <v>2</v>
       </c>
       <c r="M445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N445" t="n">
         <v>3</v>
@@ -28225,7 +28225,7 @@
         <v>3</v>
       </c>
       <c r="M448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N448" t="n">
         <v>3</v>
@@ -28287,7 +28287,7 @@
         <v>3</v>
       </c>
       <c r="M449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N449" t="n">
         <v>3</v>
@@ -28349,7 +28349,7 @@
         <v>3</v>
       </c>
       <c r="M450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N450" t="n">
         <v>3</v>
@@ -28411,7 +28411,7 @@
         <v>2</v>
       </c>
       <c r="M451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N451" t="n">
         <v>3</v>
@@ -28473,7 +28473,7 @@
         <v>1</v>
       </c>
       <c r="M452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N452" t="n">
         <v>3</v>
@@ -28535,7 +28535,7 @@
         <v>4</v>
       </c>
       <c r="M453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N453" t="n">
         <v>1</v>
@@ -28597,7 +28597,7 @@
         <v>3</v>
       </c>
       <c r="M454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N454" t="n">
         <v>3</v>
@@ -28721,7 +28721,7 @@
         <v>3</v>
       </c>
       <c r="M456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N456" t="n">
         <v>3</v>
@@ -28845,7 +28845,7 @@
         <v>4</v>
       </c>
       <c r="M458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N458" t="n">
         <v>3</v>
@@ -28969,7 +28969,7 @@
         <v>1</v>
       </c>
       <c r="M460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N460" t="n">
         <v>3</v>
@@ -29031,7 +29031,7 @@
         <v>2</v>
       </c>
       <c r="M461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N461" t="n">
         <v>3</v>
@@ -29093,7 +29093,7 @@
         <v>2</v>
       </c>
       <c r="M462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N462" t="n">
         <v>3</v>
@@ -29217,7 +29217,7 @@
         <v>3</v>
       </c>
       <c r="M464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N464" t="n">
         <v>3</v>
@@ -29341,7 +29341,7 @@
         <v>2</v>
       </c>
       <c r="M466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N466" t="n">
         <v>3</v>
@@ -29465,7 +29465,7 @@
         <v>3</v>
       </c>
       <c r="M468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N468" t="n">
         <v>3</v>
@@ -29527,7 +29527,7 @@
         <v>2</v>
       </c>
       <c r="M469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N469" t="n">
         <v>3</v>
@@ -29713,7 +29713,7 @@
         <v>3</v>
       </c>
       <c r="M472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N472" t="n">
         <v>3</v>
@@ -29775,7 +29775,7 @@
         <v>1</v>
       </c>
       <c r="M473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N473" t="n">
         <v>2</v>
@@ -29899,7 +29899,7 @@
         <v>4</v>
       </c>
       <c r="M475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N475" t="n">
         <v>3</v>
@@ -29961,7 +29961,7 @@
         <v>4</v>
       </c>
       <c r="M476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N476" t="n">
         <v>1</v>
@@ -30023,7 +30023,7 @@
         <v>1</v>
       </c>
       <c r="M477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N477" t="n">
         <v>3</v>
@@ -30085,7 +30085,7 @@
         <v>4</v>
       </c>
       <c r="M478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N478" t="n">
         <v>1</v>
@@ -30147,7 +30147,7 @@
         <v>2</v>
       </c>
       <c r="M479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N479" t="n">
         <v>3</v>
@@ -30209,7 +30209,7 @@
         <v>4</v>
       </c>
       <c r="M480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N480" t="n">
         <v>1</v>
@@ -30333,7 +30333,7 @@
         <v>4</v>
       </c>
       <c r="M482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N482" t="n">
         <v>1</v>
@@ -30395,7 +30395,7 @@
         <v>3</v>
       </c>
       <c r="M483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N483" t="n">
         <v>3</v>
@@ -30457,7 +30457,7 @@
         <v>2</v>
       </c>
       <c r="M484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N484" t="n">
         <v>3</v>
@@ -30705,7 +30705,7 @@
         <v>1</v>
       </c>
       <c r="M488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N488" t="n">
         <v>3</v>
@@ -30829,7 +30829,7 @@
         <v>2</v>
       </c>
       <c r="M490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N490" t="n">
         <v>2</v>
@@ -30953,7 +30953,7 @@
         <v>2</v>
       </c>
       <c r="M492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N492" t="n">
         <v>3</v>
@@ -31077,7 +31077,7 @@
         <v>3</v>
       </c>
       <c r="M494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N494" t="n">
         <v>2</v>
@@ -31139,7 +31139,7 @@
         <v>4</v>
       </c>
       <c r="M495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N495" t="n">
         <v>1</v>
@@ -31201,7 +31201,7 @@
         <v>2</v>
       </c>
       <c r="M496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N496" t="n">
         <v>3</v>
@@ -31263,7 +31263,7 @@
         <v>2</v>
       </c>
       <c r="M497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N497" t="n">
         <v>3</v>
@@ -31325,7 +31325,7 @@
         <v>4</v>
       </c>
       <c r="M498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N498" t="n">
         <v>1</v>
@@ -31449,7 +31449,7 @@
         <v>1</v>
       </c>
       <c r="M500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N500" t="n">
         <v>3</v>
@@ -31511,7 +31511,7 @@
         <v>2</v>
       </c>
       <c r="M501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N501" t="n">
         <v>3</v>
@@ -31573,7 +31573,7 @@
         <v>1</v>
       </c>
       <c r="M502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N502" t="n">
         <v>3</v>
@@ -31697,7 +31697,7 @@
         <v>3</v>
       </c>
       <c r="M504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N504" t="n">
         <v>3</v>
@@ -31759,7 +31759,7 @@
         <v>3</v>
       </c>
       <c r="M505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N505" t="n">
         <v>3</v>
@@ -31821,7 +31821,7 @@
         <v>4</v>
       </c>
       <c r="M506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N506" t="n">
         <v>1</v>
@@ -31883,7 +31883,7 @@
         <v>3</v>
       </c>
       <c r="M507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N507" t="n">
         <v>3</v>
@@ -31945,7 +31945,7 @@
         <v>3</v>
       </c>
       <c r="M508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N508" t="n">
         <v>3</v>
@@ -32007,7 +32007,7 @@
         <v>1</v>
       </c>
       <c r="M509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N509" t="n">
         <v>3</v>
@@ -32069,7 +32069,7 @@
         <v>1</v>
       </c>
       <c r="M510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N510" t="n">
         <v>3</v>
@@ -32131,7 +32131,7 @@
         <v>2</v>
       </c>
       <c r="M511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N511" t="n">
         <v>3</v>
@@ -32193,7 +32193,7 @@
         <v>1</v>
       </c>
       <c r="M512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N512" t="n">
         <v>3</v>
@@ -32255,7 +32255,7 @@
         <v>3</v>
       </c>
       <c r="M513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N513" t="n">
         <v>3</v>
@@ -32317,7 +32317,7 @@
         <v>1</v>
       </c>
       <c r="M514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N514" t="n">
         <v>3</v>
@@ -32441,7 +32441,7 @@
         <v>1</v>
       </c>
       <c r="M516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N516" t="n">
         <v>3</v>
@@ -32565,7 +32565,7 @@
         <v>3</v>
       </c>
       <c r="M518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N518" t="n">
         <v>3</v>
@@ -32627,7 +32627,7 @@
         <v>4</v>
       </c>
       <c r="M519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N519" t="n">
         <v>3</v>
@@ -32689,7 +32689,7 @@
         <v>3</v>
       </c>
       <c r="M520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N520" t="n">
         <v>3</v>
@@ -32813,7 +32813,7 @@
         <v>2</v>
       </c>
       <c r="M522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N522" t="n">
         <v>3</v>
@@ -32937,7 +32937,7 @@
         <v>2</v>
       </c>
       <c r="M524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N524" t="n">
         <v>3</v>
@@ -33185,7 +33185,7 @@
         <v>3</v>
       </c>
       <c r="M528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N528" t="n">
         <v>3</v>
@@ -33247,7 +33247,7 @@
         <v>2</v>
       </c>
       <c r="M529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N529" t="n">
         <v>3</v>
@@ -33433,7 +33433,7 @@
         <v>1</v>
       </c>
       <c r="M532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N532" t="n">
         <v>3</v>
@@ -33495,7 +33495,7 @@
         <v>1</v>
       </c>
       <c r="M533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N533" t="n">
         <v>3</v>
@@ -33557,7 +33557,7 @@
         <v>3</v>
       </c>
       <c r="M534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N534" t="n">
         <v>3</v>
@@ -33743,7 +33743,7 @@
         <v>1</v>
       </c>
       <c r="M537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N537" t="n">
         <v>3</v>
@@ -33805,7 +33805,7 @@
         <v>1</v>
       </c>
       <c r="M538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N538" t="n">
         <v>2</v>
@@ -33929,7 +33929,7 @@
         <v>1</v>
       </c>
       <c r="M540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N540" t="n">
         <v>3</v>
@@ -34053,7 +34053,7 @@
         <v>3</v>
       </c>
       <c r="M542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N542" t="n">
         <v>3</v>
@@ -34115,7 +34115,7 @@
         <v>2</v>
       </c>
       <c r="M543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N543" t="n">
         <v>3</v>
@@ -34177,7 +34177,7 @@
         <v>4</v>
       </c>
       <c r="M544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N544" t="n">
         <v>1</v>
@@ -34239,7 +34239,7 @@
         <v>3</v>
       </c>
       <c r="M545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N545" t="n">
         <v>3</v>
@@ -34363,7 +34363,7 @@
         <v>3</v>
       </c>
       <c r="M547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N547" t="n">
         <v>3</v>
@@ -34425,7 +34425,7 @@
         <v>3</v>
       </c>
       <c r="M548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N548" t="n">
         <v>3</v>
@@ -34487,7 +34487,7 @@
         <v>1</v>
       </c>
       <c r="M549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N549" t="n">
         <v>3</v>
@@ -34549,7 +34549,7 @@
         <v>1</v>
       </c>
       <c r="M550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N550" t="n">
         <v>3</v>
@@ -34611,7 +34611,7 @@
         <v>1</v>
       </c>
       <c r="M551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N551" t="n">
         <v>3</v>
@@ -34673,7 +34673,7 @@
         <v>2</v>
       </c>
       <c r="M552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N552" t="n">
         <v>3</v>
@@ -34735,7 +34735,7 @@
         <v>3</v>
       </c>
       <c r="M553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N553" t="n">
         <v>3</v>
@@ -34797,7 +34797,7 @@
         <v>3</v>
       </c>
       <c r="M554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N554" t="n">
         <v>3</v>
@@ -34859,7 +34859,7 @@
         <v>3</v>
       </c>
       <c r="M555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N555" t="n">
         <v>3</v>
@@ -34983,7 +34983,7 @@
         <v>4</v>
       </c>
       <c r="M557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N557" t="n">
         <v>1</v>
@@ -35045,7 +35045,7 @@
         <v>4</v>
       </c>
       <c r="M558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N558" t="n">
         <v>2</v>
@@ -35231,7 +35231,7 @@
         <v>3</v>
       </c>
       <c r="M561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N561" t="n">
         <v>3</v>
@@ -35293,7 +35293,7 @@
         <v>1</v>
       </c>
       <c r="M562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N562" t="n">
         <v>3</v>
@@ -35355,7 +35355,7 @@
         <v>4</v>
       </c>
       <c r="M563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N563" t="n">
         <v>1</v>
@@ -35417,7 +35417,7 @@
         <v>1</v>
       </c>
       <c r="M564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N564" t="n">
         <v>2</v>
@@ -35541,7 +35541,7 @@
         <v>3</v>
       </c>
       <c r="M566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N566" t="n">
         <v>3</v>
@@ -35727,7 +35727,7 @@
         <v>1</v>
       </c>
       <c r="M569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N569" t="n">
         <v>3</v>
@@ -35789,7 +35789,7 @@
         <v>4</v>
       </c>
       <c r="M570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N570" t="n">
         <v>1</v>
@@ -35975,7 +35975,7 @@
         <v>2</v>
       </c>
       <c r="M573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N573" t="n">
         <v>2</v>
@@ -36037,7 +36037,7 @@
         <v>1</v>
       </c>
       <c r="M574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N574" t="n">
         <v>3</v>
@@ -36161,7 +36161,7 @@
         <v>3</v>
       </c>
       <c r="M576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N576" t="n">
         <v>3</v>
@@ -36347,7 +36347,7 @@
         <v>1</v>
       </c>
       <c r="M579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N579" t="n">
         <v>3</v>
@@ -36409,7 +36409,7 @@
         <v>3</v>
       </c>
       <c r="M580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N580" t="n">
         <v>3</v>
@@ -36471,7 +36471,7 @@
         <v>3</v>
       </c>
       <c r="M581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N581" t="n">
         <v>3</v>
@@ -36533,7 +36533,7 @@
         <v>4</v>
       </c>
       <c r="M582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N582" t="n">
         <v>1</v>
@@ -36595,7 +36595,7 @@
         <v>3</v>
       </c>
       <c r="M583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N583" t="n">
         <v>3</v>
@@ -36657,7 +36657,7 @@
         <v>3</v>
       </c>
       <c r="M584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N584" t="n">
         <v>3</v>
@@ -36843,7 +36843,7 @@
         <v>2</v>
       </c>
       <c r="M587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N587" t="n">
         <v>3</v>
@@ -36905,7 +36905,7 @@
         <v>1</v>
       </c>
       <c r="M588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N588" t="n">
         <v>3</v>
@@ -37029,7 +37029,7 @@
         <v>3</v>
       </c>
       <c r="M590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N590" t="n">
         <v>3</v>
@@ -37091,7 +37091,7 @@
         <v>2</v>
       </c>
       <c r="M591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N591" t="n">
         <v>3</v>
@@ -37153,7 +37153,7 @@
         <v>3</v>
       </c>
       <c r="M592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N592" t="n">
         <v>3</v>
@@ -37277,7 +37277,7 @@
         <v>1</v>
       </c>
       <c r="M594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N594" t="n">
         <v>3</v>
@@ -37339,7 +37339,7 @@
         <v>2</v>
       </c>
       <c r="M595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N595" t="n">
         <v>3</v>
@@ -37401,7 +37401,7 @@
         <v>4</v>
       </c>
       <c r="M596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N596" t="n">
         <v>1</v>
@@ -37463,7 +37463,7 @@
         <v>3</v>
       </c>
       <c r="M597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N597" t="n">
         <v>3</v>
@@ -37525,7 +37525,7 @@
         <v>1</v>
       </c>
       <c r="M598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N598" t="n">
         <v>3</v>
@@ -37587,7 +37587,7 @@
         <v>2</v>
       </c>
       <c r="M599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N599" t="n">
         <v>3</v>
@@ -37835,7 +37835,7 @@
         <v>1</v>
       </c>
       <c r="M603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N603" t="n">
         <v>3</v>
@@ -38021,7 +38021,7 @@
         <v>2</v>
       </c>
       <c r="M606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N606" t="n">
         <v>3</v>
@@ -38083,7 +38083,7 @@
         <v>2</v>
       </c>
       <c r="M607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N607" t="n">
         <v>3</v>
@@ -38207,7 +38207,7 @@
         <v>3</v>
       </c>
       <c r="M609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N609" t="n">
         <v>3</v>
@@ -38269,7 +38269,7 @@
         <v>1</v>
       </c>
       <c r="M610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N610" t="n">
         <v>3</v>
@@ -38517,7 +38517,7 @@
         <v>3</v>
       </c>
       <c r="M614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N614" t="n">
         <v>3</v>
@@ -38579,7 +38579,7 @@
         <v>4</v>
       </c>
       <c r="M615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N615" t="n">
         <v>1</v>
@@ -38703,7 +38703,7 @@
         <v>2</v>
       </c>
       <c r="M617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N617" t="n">
         <v>3</v>
@@ -38765,7 +38765,7 @@
         <v>3</v>
       </c>
       <c r="M618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N618" t="n">
         <v>3</v>
@@ -38827,7 +38827,7 @@
         <v>4</v>
       </c>
       <c r="M619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N619" t="n">
         <v>1</v>
@@ -38889,7 +38889,7 @@
         <v>1</v>
       </c>
       <c r="M620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N620" t="n">
         <v>3</v>
@@ -38951,7 +38951,7 @@
         <v>3</v>
       </c>
       <c r="M621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N621" t="n">
         <v>3</v>
@@ -39013,7 +39013,7 @@
         <v>4</v>
       </c>
       <c r="M622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N622" t="n">
         <v>3</v>
@@ -39075,7 +39075,7 @@
         <v>3</v>
       </c>
       <c r="M623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N623" t="n">
         <v>3</v>
@@ -39137,7 +39137,7 @@
         <v>1</v>
       </c>
       <c r="M624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N624" t="n">
         <v>2</v>
@@ -39199,7 +39199,7 @@
         <v>3</v>
       </c>
       <c r="M625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N625" t="n">
         <v>3</v>
@@ -39261,7 +39261,7 @@
         <v>3</v>
       </c>
       <c r="M626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N626" t="n">
         <v>3</v>
@@ -39323,7 +39323,7 @@
         <v>2</v>
       </c>
       <c r="M627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N627" t="n">
         <v>3</v>
@@ -39385,7 +39385,7 @@
         <v>3</v>
       </c>
       <c r="M628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N628" t="n">
         <v>3</v>
@@ -39509,7 +39509,7 @@
         <v>3</v>
       </c>
       <c r="M630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N630" t="n">
         <v>3</v>
@@ -39633,7 +39633,7 @@
         <v>2</v>
       </c>
       <c r="M632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N632" t="n">
         <v>3</v>
@@ -39695,7 +39695,7 @@
         <v>1</v>
       </c>
       <c r="M633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N633" t="n">
         <v>2</v>
@@ -39757,7 +39757,7 @@
         <v>1</v>
       </c>
       <c r="M634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N634" t="n">
         <v>3</v>
@@ -39819,7 +39819,7 @@
         <v>4</v>
       </c>
       <c r="M635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N635" t="n">
         <v>1</v>
@@ -39881,7 +39881,7 @@
         <v>1</v>
       </c>
       <c r="M636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N636" t="n">
         <v>2</v>
@@ -39943,7 +39943,7 @@
         <v>1</v>
       </c>
       <c r="M637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N637" t="n">
         <v>3</v>
@@ -40191,7 +40191,7 @@
         <v>2</v>
       </c>
       <c r="M641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N641" t="n">
         <v>3</v>
@@ -40253,7 +40253,7 @@
         <v>1</v>
       </c>
       <c r="M642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N642" t="n">
         <v>3</v>
@@ -40315,7 +40315,7 @@
         <v>1</v>
       </c>
       <c r="M643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N643" t="n">
         <v>3</v>
@@ -40501,7 +40501,7 @@
         <v>1</v>
       </c>
       <c r="M646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N646" t="n">
         <v>3</v>
@@ -40625,7 +40625,7 @@
         <v>3</v>
       </c>
       <c r="M648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N648" t="n">
         <v>3</v>
@@ -40687,7 +40687,7 @@
         <v>2</v>
       </c>
       <c r="M649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N649" t="n">
         <v>2</v>
@@ -40811,7 +40811,7 @@
         <v>3</v>
       </c>
       <c r="M651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N651" t="n">
         <v>3</v>
@@ -40873,7 +40873,7 @@
         <v>1</v>
       </c>
       <c r="M652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N652" t="n">
         <v>3</v>
@@ -40997,7 +40997,7 @@
         <v>1</v>
       </c>
       <c r="M654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N654" t="n">
         <v>3</v>
@@ -41059,7 +41059,7 @@
         <v>2</v>
       </c>
       <c r="M655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N655" t="n">
         <v>3</v>
@@ -41183,7 +41183,7 @@
         <v>3</v>
       </c>
       <c r="M657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N657" t="n">
         <v>2</v>
@@ -41245,7 +41245,7 @@
         <v>2</v>
       </c>
       <c r="M658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N658" t="n">
         <v>3</v>
@@ -41307,7 +41307,7 @@
         <v>2</v>
       </c>
       <c r="M659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N659" t="n">
         <v>3</v>
@@ -41369,7 +41369,7 @@
         <v>1</v>
       </c>
       <c r="M660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N660" t="n">
         <v>3</v>
@@ -41431,7 +41431,7 @@
         <v>3</v>
       </c>
       <c r="M661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N661" t="n">
         <v>3</v>
@@ -41493,7 +41493,7 @@
         <v>1</v>
       </c>
       <c r="M662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N662" t="n">
         <v>3</v>
@@ -41555,7 +41555,7 @@
         <v>2</v>
       </c>
       <c r="M663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N663" t="n">
         <v>2</v>
@@ -41617,7 +41617,7 @@
         <v>3</v>
       </c>
       <c r="M664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N664" t="n">
         <v>3</v>
@@ -41679,7 +41679,7 @@
         <v>4</v>
       </c>
       <c r="M665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N665" t="n">
         <v>3</v>
@@ -41741,7 +41741,7 @@
         <v>3</v>
       </c>
       <c r="M666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N666" t="n">
         <v>3</v>
@@ -41865,7 +41865,7 @@
         <v>2</v>
       </c>
       <c r="M668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N668" t="n">
         <v>2</v>
@@ -41927,7 +41927,7 @@
         <v>2</v>
       </c>
       <c r="M669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N669" t="n">
         <v>3</v>
@@ -41989,7 +41989,7 @@
         <v>1</v>
       </c>
       <c r="M670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N670" t="n">
         <v>3</v>
@@ -42051,7 +42051,7 @@
         <v>4</v>
       </c>
       <c r="M671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N671" t="n">
         <v>1</v>
@@ -42113,7 +42113,7 @@
         <v>1</v>
       </c>
       <c r="M672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N672" t="n">
         <v>2</v>
@@ -42175,7 +42175,7 @@
         <v>2</v>
       </c>
       <c r="M673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N673" t="n">
         <v>3</v>
@@ -42423,7 +42423,7 @@
         <v>3</v>
       </c>
       <c r="M677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N677" t="n">
         <v>2</v>
@@ -42547,7 +42547,7 @@
         <v>1</v>
       </c>
       <c r="M679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N679" t="n">
         <v>3</v>
@@ -42671,7 +42671,7 @@
         <v>2</v>
       </c>
       <c r="M681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N681" t="n">
         <v>3</v>
@@ -42733,7 +42733,7 @@
         <v>3</v>
       </c>
       <c r="M682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N682" t="n">
         <v>3</v>
@@ -42795,7 +42795,7 @@
         <v>3</v>
       </c>
       <c r="M683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N683" t="n">
         <v>3</v>
@@ -42857,7 +42857,7 @@
         <v>1</v>
       </c>
       <c r="M684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N684" t="n">
         <v>3</v>
@@ -42919,7 +42919,7 @@
         <v>2</v>
       </c>
       <c r="M685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N685" t="n">
         <v>3</v>
@@ -43043,7 +43043,7 @@
         <v>2</v>
       </c>
       <c r="M687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N687" t="n">
         <v>3</v>
@@ -43167,7 +43167,7 @@
         <v>2</v>
       </c>
       <c r="M689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N689" t="n">
         <v>3</v>
@@ -43229,7 +43229,7 @@
         <v>1</v>
       </c>
       <c r="M690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N690" t="n">
         <v>3</v>
@@ -43353,7 +43353,7 @@
         <v>2</v>
       </c>
       <c r="M692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N692" t="n">
         <v>3</v>
@@ -43415,7 +43415,7 @@
         <v>2</v>
       </c>
       <c r="M693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N693" t="n">
         <v>3</v>
@@ -43477,7 +43477,7 @@
         <v>3</v>
       </c>
       <c r="M694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N694" t="n">
         <v>3</v>
@@ -43601,7 +43601,7 @@
         <v>2</v>
       </c>
       <c r="M696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N696" t="n">
         <v>3</v>
@@ -43663,7 +43663,7 @@
         <v>3</v>
       </c>
       <c r="M697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N697" t="n">
         <v>3</v>
@@ -43725,7 +43725,7 @@
         <v>1</v>
       </c>
       <c r="M698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N698" t="n">
         <v>3</v>
@@ -43787,7 +43787,7 @@
         <v>2</v>
       </c>
       <c r="M699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N699" t="n">
         <v>3</v>
@@ -43849,7 +43849,7 @@
         <v>3</v>
       </c>
       <c r="M700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N700" t="n">
         <v>3</v>
@@ -44035,7 +44035,7 @@
         <v>4</v>
       </c>
       <c r="M703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N703" t="n">
         <v>1</v>
@@ -44283,7 +44283,7 @@
         <v>3</v>
       </c>
       <c r="M707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N707" t="n">
         <v>3</v>
@@ -44345,7 +44345,7 @@
         <v>3</v>
       </c>
       <c r="M708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N708" t="n">
         <v>3</v>
@@ -44407,7 +44407,7 @@
         <v>4</v>
       </c>
       <c r="M709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N709" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         <v>4</v>
       </c>
       <c r="M710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N710" t="n">
         <v>3</v>
@@ -44593,7 +44593,7 @@
         <v>1</v>
       </c>
       <c r="M712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N712" t="n">
         <v>3</v>
@@ -44655,7 +44655,7 @@
         <v>4</v>
       </c>
       <c r="M713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N713" t="n">
         <v>1</v>
@@ -44717,7 +44717,7 @@
         <v>4</v>
       </c>
       <c r="M714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N714" t="n">
         <v>1</v>
@@ -44779,7 +44779,7 @@
         <v>4</v>
       </c>
       <c r="M715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N715" t="n">
         <v>3</v>
@@ -44903,7 +44903,7 @@
         <v>4</v>
       </c>
       <c r="M717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N717" t="n">
         <v>1</v>
@@ -45027,7 +45027,7 @@
         <v>4</v>
       </c>
       <c r="M719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N719" t="n">
         <v>1</v>
@@ -45089,7 +45089,7 @@
         <v>4</v>
       </c>
       <c r="M720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N720" t="n">
         <v>3</v>
@@ -45151,7 +45151,7 @@
         <v>3</v>
       </c>
       <c r="M721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N721" t="n">
         <v>3</v>
@@ -45213,7 +45213,7 @@
         <v>3</v>
       </c>
       <c r="M722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N722" t="n">
         <v>3</v>
@@ -45275,7 +45275,7 @@
         <v>4</v>
       </c>
       <c r="M723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N723" t="n">
         <v>1</v>
@@ -45399,7 +45399,7 @@
         <v>2</v>
       </c>
       <c r="M725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N725" t="n">
         <v>3</v>
@@ -45461,7 +45461,7 @@
         <v>4</v>
       </c>
       <c r="M726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N726" t="n">
         <v>2</v>
@@ -45523,7 +45523,7 @@
         <v>3</v>
       </c>
       <c r="M727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N727" t="n">
         <v>3</v>
@@ -45585,7 +45585,7 @@
         <v>4</v>
       </c>
       <c r="M728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N728" t="n">
         <v>3</v>
@@ -45709,7 +45709,7 @@
         <v>3</v>
       </c>
       <c r="M730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N730" t="n">
         <v>3</v>
@@ -45957,7 +45957,7 @@
         <v>3</v>
       </c>
       <c r="M734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N734" t="n">
         <v>3</v>
@@ -46143,7 +46143,7 @@
         <v>1</v>
       </c>
       <c r="M737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N737" t="n">
         <v>3</v>
@@ -46329,7 +46329,7 @@
         <v>3</v>
       </c>
       <c r="M740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N740" t="n">
         <v>3</v>
@@ -46391,7 +46391,7 @@
         <v>1</v>
       </c>
       <c r="M741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N741" t="n">
         <v>3</v>
@@ -46453,7 +46453,7 @@
         <v>3</v>
       </c>
       <c r="M742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N742" t="n">
         <v>2</v>
@@ -46515,7 +46515,7 @@
         <v>2</v>
       </c>
       <c r="M743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N743" t="n">
         <v>3</v>
@@ -46639,7 +46639,7 @@
         <v>1</v>
       </c>
       <c r="M745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N745" t="n">
         <v>3</v>
@@ -46763,7 +46763,7 @@
         <v>1</v>
       </c>
       <c r="M747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N747" t="n">
         <v>3</v>
@@ -46825,7 +46825,7 @@
         <v>2</v>
       </c>
       <c r="M748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N748" t="n">
         <v>3</v>
@@ -46887,7 +46887,7 @@
         <v>3</v>
       </c>
       <c r="M749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N749" t="n">
         <v>3</v>
@@ -46949,7 +46949,7 @@
         <v>4</v>
       </c>
       <c r="M750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N750" t="n">
         <v>1</v>
@@ -47073,7 +47073,7 @@
         <v>2</v>
       </c>
       <c r="M752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N752" t="n">
         <v>3</v>
@@ -47135,7 +47135,7 @@
         <v>4</v>
       </c>
       <c r="M753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N753" t="n">
         <v>1</v>
@@ -47197,7 +47197,7 @@
         <v>3</v>
       </c>
       <c r="M754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N754" t="n">
         <v>3</v>
@@ -47321,7 +47321,7 @@
         <v>3</v>
       </c>
       <c r="M756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N756" t="n">
         <v>3</v>
@@ -47445,7 +47445,7 @@
         <v>4</v>
       </c>
       <c r="M758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N758" t="n">
         <v>3</v>
@@ -47569,7 +47569,7 @@
         <v>2</v>
       </c>
       <c r="M760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N760" t="n">
         <v>3</v>
@@ -47631,7 +47631,7 @@
         <v>1</v>
       </c>
       <c r="M761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N761" t="n">
         <v>3</v>
@@ -47755,7 +47755,7 @@
         <v>4</v>
       </c>
       <c r="M763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N763" t="n">
         <v>1</v>
@@ -47941,7 +47941,7 @@
         <v>3</v>
       </c>
       <c r="M766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N766" t="n">
         <v>3</v>
@@ -48065,7 +48065,7 @@
         <v>3</v>
       </c>
       <c r="M768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N768" t="n">
         <v>2</v>
@@ -48437,7 +48437,7 @@
         <v>3</v>
       </c>
       <c r="M774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N774" t="n">
         <v>3</v>
@@ -48499,7 +48499,7 @@
         <v>2</v>
       </c>
       <c r="M775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N775" t="n">
         <v>3</v>
@@ -48623,7 +48623,7 @@
         <v>4</v>
       </c>
       <c r="M777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N777" t="n">
         <v>3</v>
@@ -48685,7 +48685,7 @@
         <v>2</v>
       </c>
       <c r="M778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N778" t="n">
         <v>3</v>
@@ -48747,7 +48747,7 @@
         <v>1</v>
       </c>
       <c r="M779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N779" t="n">
         <v>3</v>
@@ -48933,7 +48933,7 @@
         <v>3</v>
       </c>
       <c r="M782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N782" t="n">
         <v>3</v>
@@ -48995,7 +48995,7 @@
         <v>1</v>
       </c>
       <c r="M783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N783" t="n">
         <v>3</v>
@@ -49057,7 +49057,7 @@
         <v>4</v>
       </c>
       <c r="M784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N784" t="n">
         <v>1</v>
@@ -49119,7 +49119,7 @@
         <v>4</v>
       </c>
       <c r="M785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N785" t="n">
         <v>3</v>
@@ -49305,7 +49305,7 @@
         <v>3</v>
       </c>
       <c r="M788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N788" t="n">
         <v>3</v>
@@ -49429,7 +49429,7 @@
         <v>2</v>
       </c>
       <c r="M790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N790" t="n">
         <v>3</v>
@@ -49491,7 +49491,7 @@
         <v>1</v>
       </c>
       <c r="M791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N791" t="n">
         <v>3</v>
@@ -49739,7 +49739,7 @@
         <v>1</v>
       </c>
       <c r="M795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N795" t="n">
         <v>2</v>
@@ -49863,7 +49863,7 @@
         <v>4</v>
       </c>
       <c r="M797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N797" t="n">
         <v>1</v>
@@ -50297,7 +50297,7 @@
         <v>3</v>
       </c>
       <c r="M804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N804" t="n">
         <v>3</v>
@@ -50359,7 +50359,7 @@
         <v>4</v>
       </c>
       <c r="M805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N805" t="n">
         <v>1</v>
@@ -50421,7 +50421,7 @@
         <v>3</v>
       </c>
       <c r="M806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N806" t="n">
         <v>2</v>
@@ -50483,7 +50483,7 @@
         <v>4</v>
       </c>
       <c r="M807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N807" t="n">
         <v>1</v>
@@ -50545,7 +50545,7 @@
         <v>4</v>
       </c>
       <c r="M808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N808" t="n">
         <v>1</v>
@@ -50607,7 +50607,7 @@
         <v>1</v>
       </c>
       <c r="M809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N809" t="n">
         <v>2</v>
@@ -50855,7 +50855,7 @@
         <v>3</v>
       </c>
       <c r="M813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N813" t="n">
         <v>3</v>
@@ -50917,7 +50917,7 @@
         <v>2</v>
       </c>
       <c r="M814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N814" t="n">
         <v>3</v>
@@ -50979,7 +50979,7 @@
         <v>1</v>
       </c>
       <c r="M815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N815" t="n">
         <v>3</v>
@@ -51041,7 +51041,7 @@
         <v>2</v>
       </c>
       <c r="M816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N816" t="n">
         <v>3</v>
@@ -51165,7 +51165,7 @@
         <v>4</v>
       </c>
       <c r="M818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N818" t="n">
         <v>1</v>
@@ -51413,7 +51413,7 @@
         <v>3</v>
       </c>
       <c r="M822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N822" t="n">
         <v>3</v>
@@ -51475,7 +51475,7 @@
         <v>3</v>
       </c>
       <c r="M823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N823" t="n">
         <v>3</v>
@@ -51537,7 +51537,7 @@
         <v>3</v>
       </c>
       <c r="M824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N824" t="n">
         <v>3</v>
@@ -51599,7 +51599,7 @@
         <v>2</v>
       </c>
       <c r="M825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N825" t="n">
         <v>3</v>
@@ -51661,7 +51661,7 @@
         <v>2</v>
       </c>
       <c r="M826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N826" t="n">
         <v>3</v>
@@ -51723,7 +51723,7 @@
         <v>4</v>
       </c>
       <c r="M827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N827" t="n">
         <v>1</v>
@@ -52033,7 +52033,7 @@
         <v>3</v>
       </c>
       <c r="M832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N832" t="n">
         <v>3</v>
@@ -52157,7 +52157,7 @@
         <v>2</v>
       </c>
       <c r="M834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N834" t="n">
         <v>3</v>
@@ -52219,7 +52219,7 @@
         <v>4</v>
       </c>
       <c r="M835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N835" t="n">
         <v>1</v>
@@ -52467,7 +52467,7 @@
         <v>4</v>
       </c>
       <c r="M839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N839" t="n">
         <v>3</v>
@@ -52653,7 +52653,7 @@
         <v>2</v>
       </c>
       <c r="M842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N842" t="n">
         <v>3</v>
@@ -52901,7 +52901,7 @@
         <v>4</v>
       </c>
       <c r="M846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N846" t="n">
         <v>1</v>
@@ -52963,7 +52963,7 @@
         <v>3</v>
       </c>
       <c r="M847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N847" t="n">
         <v>2</v>
@@ -53087,7 +53087,7 @@
         <v>3</v>
       </c>
       <c r="M849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N849" t="n">
         <v>2</v>
@@ -53149,7 +53149,7 @@
         <v>4</v>
       </c>
       <c r="M850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N850" t="n">
         <v>1</v>
@@ -53273,7 +53273,7 @@
         <v>2</v>
       </c>
       <c r="M852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N852" t="n">
         <v>3</v>
@@ -53335,7 +53335,7 @@
         <v>1</v>
       </c>
       <c r="M853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N853" t="n">
         <v>3</v>
@@ -53397,7 +53397,7 @@
         <v>1</v>
       </c>
       <c r="M854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N854" t="n">
         <v>1</v>
@@ -53521,7 +53521,7 @@
         <v>1</v>
       </c>
       <c r="M856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N856" t="n">
         <v>3</v>
@@ -53831,7 +53831,7 @@
         <v>1</v>
       </c>
       <c r="M861" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N861" t="n">
         <v>3</v>
@@ -53955,7 +53955,7 @@
         <v>4</v>
       </c>
       <c r="M863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N863" t="n">
         <v>1</v>
@@ -54017,7 +54017,7 @@
         <v>3</v>
       </c>
       <c r="M864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N864" t="n">
         <v>3</v>
@@ -54079,7 +54079,7 @@
         <v>3</v>
       </c>
       <c r="M865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N865" t="n">
         <v>3</v>
@@ -54265,7 +54265,7 @@
         <v>1</v>
       </c>
       <c r="M868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N868" t="n">
         <v>3</v>
@@ -54327,7 +54327,7 @@
         <v>4</v>
       </c>
       <c r="M869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N869" t="n">
         <v>2</v>
@@ -54451,7 +54451,7 @@
         <v>1</v>
       </c>
       <c r="M871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N871" t="n">
         <v>3</v>
@@ -54513,7 +54513,7 @@
         <v>2</v>
       </c>
       <c r="M872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N872" t="n">
         <v>3</v>
@@ -54637,7 +54637,7 @@
         <v>3</v>
       </c>
       <c r="M874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N874" t="n">
         <v>3</v>
@@ -54699,7 +54699,7 @@
         <v>2</v>
       </c>
       <c r="M875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N875" t="n">
         <v>3</v>
@@ -54823,7 +54823,7 @@
         <v>1</v>
       </c>
       <c r="M877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N877" t="n">
         <v>3</v>
@@ -54885,7 +54885,7 @@
         <v>2</v>
       </c>
       <c r="M878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N878" t="n">
         <v>3</v>
@@ -54947,7 +54947,7 @@
         <v>2</v>
       </c>
       <c r="M879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N879" t="n">
         <v>3</v>
@@ -55009,7 +55009,7 @@
         <v>4</v>
       </c>
       <c r="M880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N880" t="n">
         <v>1</v>
@@ -55133,7 +55133,7 @@
         <v>4</v>
       </c>
       <c r="M882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N882" t="n">
         <v>1</v>
@@ -55257,7 +55257,7 @@
         <v>4</v>
       </c>
       <c r="M884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N884" t="n">
         <v>1</v>
@@ -55443,7 +55443,7 @@
         <v>2</v>
       </c>
       <c r="M887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N887" t="n">
         <v>3</v>
@@ -55505,7 +55505,7 @@
         <v>1</v>
       </c>
       <c r="M888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N888" t="n">
         <v>3</v>
@@ -55567,7 +55567,7 @@
         <v>4</v>
       </c>
       <c r="M889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N889" t="n">
         <v>1</v>
@@ -55691,7 +55691,7 @@
         <v>3</v>
       </c>
       <c r="M891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N891" t="n">
         <v>3</v>
@@ -56001,7 +56001,7 @@
         <v>2</v>
       </c>
       <c r="M896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N896" t="n">
         <v>3</v>
@@ -56187,7 +56187,7 @@
         <v>4</v>
       </c>
       <c r="M899" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N899" t="n">
         <v>1</v>
@@ -56249,7 +56249,7 @@
         <v>3</v>
       </c>
       <c r="M900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N900" t="n">
         <v>2</v>
@@ -56311,7 +56311,7 @@
         <v>2</v>
       </c>
       <c r="M901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N901" t="n">
         <v>3</v>
@@ -56373,7 +56373,7 @@
         <v>1</v>
       </c>
       <c r="M902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N902" t="n">
         <v>3</v>
@@ -56435,7 +56435,7 @@
         <v>3</v>
       </c>
       <c r="M903" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N903" t="n">
         <v>3</v>
@@ -56497,7 +56497,7 @@
         <v>3</v>
       </c>
       <c r="M904" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N904" t="n">
         <v>3</v>
@@ -56621,7 +56621,7 @@
         <v>2</v>
       </c>
       <c r="M906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N906" t="n">
         <v>2</v>
@@ -56683,7 +56683,7 @@
         <v>1</v>
       </c>
       <c r="M907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N907" t="n">
         <v>3</v>
@@ -56869,7 +56869,7 @@
         <v>4</v>
       </c>
       <c r="M910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N910" t="n">
         <v>1</v>
@@ -57055,7 +57055,7 @@
         <v>4</v>
       </c>
       <c r="M913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N913" t="n">
         <v>1</v>
@@ -57179,7 +57179,7 @@
         <v>3</v>
       </c>
       <c r="M915" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N915" t="n">
         <v>3</v>
@@ -57489,7 +57489,7 @@
         <v>4</v>
       </c>
       <c r="M920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N920" t="n">
         <v>2</v>
@@ -57737,7 +57737,7 @@
         <v>1</v>
       </c>
       <c r="M924" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N924" t="n">
         <v>3</v>
@@ -57861,7 +57861,7 @@
         <v>4</v>
       </c>
       <c r="M926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N926" t="n">
         <v>1</v>
@@ -57923,7 +57923,7 @@
         <v>4</v>
       </c>
       <c r="M927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N927" t="n">
         <v>2</v>
@@ -57985,7 +57985,7 @@
         <v>4</v>
       </c>
       <c r="M928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N928" t="n">
         <v>1</v>
@@ -58047,7 +58047,7 @@
         <v>2</v>
       </c>
       <c r="M929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N929" t="n">
         <v>3</v>
@@ -58171,7 +58171,7 @@
         <v>4</v>
       </c>
       <c r="M931" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N931" t="n">
         <v>1</v>
@@ -58233,7 +58233,7 @@
         <v>2</v>
       </c>
       <c r="M932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N932" t="n">
         <v>3</v>
@@ -58543,7 +58543,7 @@
         <v>4</v>
       </c>
       <c r="M937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N937" t="n">
         <v>1</v>
@@ -58667,7 +58667,7 @@
         <v>2</v>
       </c>
       <c r="M939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N939" t="n">
         <v>3</v>
@@ -58729,7 +58729,7 @@
         <v>2</v>
       </c>
       <c r="M940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N940" t="n">
         <v>1</v>
@@ -58977,7 +58977,7 @@
         <v>3</v>
       </c>
       <c r="M944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N944" t="n">
         <v>3</v>
@@ -59039,7 +59039,7 @@
         <v>4</v>
       </c>
       <c r="M945" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N945" t="n">
         <v>1</v>
@@ -59163,7 +59163,7 @@
         <v>2</v>
       </c>
       <c r="M947" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N947" t="n">
         <v>3</v>
@@ -59225,7 +59225,7 @@
         <v>1</v>
       </c>
       <c r="M948" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N948" t="n">
         <v>2</v>
@@ -59287,7 +59287,7 @@
         <v>3</v>
       </c>
       <c r="M949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N949" t="n">
         <v>3</v>
@@ -59349,7 +59349,7 @@
         <v>4</v>
       </c>
       <c r="M950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N950" t="n">
         <v>1</v>
@@ -59597,7 +59597,7 @@
         <v>3</v>
       </c>
       <c r="M954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N954" t="n">
         <v>3</v>
@@ -59783,7 +59783,7 @@
         <v>3</v>
       </c>
       <c r="M957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N957" t="n">
         <v>2</v>
@@ -59845,7 +59845,7 @@
         <v>1</v>
       </c>
       <c r="M958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N958" t="n">
         <v>3</v>
@@ -59907,7 +59907,7 @@
         <v>2</v>
       </c>
       <c r="M959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N959" t="n">
         <v>2</v>
@@ -59969,7 +59969,7 @@
         <v>4</v>
       </c>
       <c r="M960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N960" t="n">
         <v>1</v>
@@ -60155,7 +60155,7 @@
         <v>1</v>
       </c>
       <c r="M963" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N963" t="n">
         <v>3</v>
@@ -60341,7 +60341,7 @@
         <v>3</v>
       </c>
       <c r="M966" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N966" t="n">
         <v>3</v>
@@ -60403,7 +60403,7 @@
         <v>2</v>
       </c>
       <c r="M967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N967" t="n">
         <v>3</v>
@@ -60527,7 +60527,7 @@
         <v>3</v>
       </c>
       <c r="M969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N969" t="n">
         <v>3</v>
@@ -60589,7 +60589,7 @@
         <v>2</v>
       </c>
       <c r="M970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N970" t="n">
         <v>2</v>
@@ -60713,7 +60713,7 @@
         <v>2</v>
       </c>
       <c r="M972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N972" t="n">
         <v>2</v>
@@ -60775,7 +60775,7 @@
         <v>2</v>
       </c>
       <c r="M973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N973" t="n">
         <v>3</v>
@@ -60837,7 +60837,7 @@
         <v>4</v>
       </c>
       <c r="M974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N974" t="n">
         <v>3</v>
@@ -60899,7 +60899,7 @@
         <v>2</v>
       </c>
       <c r="M975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N975" t="n">
         <v>3</v>
@@ -60961,7 +60961,7 @@
         <v>2</v>
       </c>
       <c r="M976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N976" t="n">
         <v>2</v>
@@ -61085,7 +61085,7 @@
         <v>2</v>
       </c>
       <c r="M978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N978" t="n">
         <v>3</v>
@@ -61147,7 +61147,7 @@
         <v>3</v>
       </c>
       <c r="M979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N979" t="n">
         <v>3</v>
@@ -61209,7 +61209,7 @@
         <v>4</v>
       </c>
       <c r="M980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N980" t="n">
         <v>1</v>
@@ -61333,7 +61333,7 @@
         <v>4</v>
       </c>
       <c r="M982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N982" t="n">
         <v>3</v>
@@ -61457,7 +61457,7 @@
         <v>4</v>
       </c>
       <c r="M984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N984" t="n">
         <v>1</v>
@@ -61519,7 +61519,7 @@
         <v>4</v>
       </c>
       <c r="M985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N985" t="n">
         <v>1</v>
@@ -61581,7 +61581,7 @@
         <v>2</v>
       </c>
       <c r="M986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N986" t="n">
         <v>3</v>
@@ -61643,7 +61643,7 @@
         <v>3</v>
       </c>
       <c r="M987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N987" t="n">
         <v>3</v>
@@ -61891,7 +61891,7 @@
         <v>3</v>
       </c>
       <c r="M991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N991" t="n">
         <v>3</v>
@@ -61953,7 +61953,7 @@
         <v>3</v>
       </c>
       <c r="M992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N992" t="n">
         <v>3</v>
@@ -62139,7 +62139,7 @@
         <v>4</v>
       </c>
       <c r="M995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N995" t="n">
         <v>2</v>
@@ -62201,7 +62201,7 @@
         <v>3</v>
       </c>
       <c r="M996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N996" t="n">
         <v>3</v>
@@ -62325,7 +62325,7 @@
         <v>2</v>
       </c>
       <c r="M998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N998" t="n">
         <v>3</v>
@@ -62387,7 +62387,7 @@
         <v>3</v>
       </c>
       <c r="M999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N999" t="n">
         <v>2</v>
